--- a/biology/Zoologie/Cryptachaea/Cryptachaea.xlsx
+++ b/biology/Zoologie/Cryptachaea/Cryptachaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptachaea est un genre d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptachaea est un genre d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique sauf Cryptachaea riparia paléarctique, Cryptachaea gigantipes, Cryptachaea veruculata et Cryptachaea meraukensis d'Océanie, Cryptachaea projectivulva et Cryptachaea ogatai d'Asie de l'Est et Cryptachaea blattea cosmopolite par introduction[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique sauf Cryptachaea riparia paléarctique, Cryptachaea gigantipes, Cryptachaea veruculata et Cryptachaea meraukensis d'Océanie, Cryptachaea projectivulva et Cryptachaea ogatai d'Asie de l'Est et Cryptachaea blattea cosmopolite par introduction.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 29/11/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 29/11/2023) :
 Cryptachaea alacris (Keyserling, 1884)
 Cryptachaea alleluia Rodrigues &amp; Poeta, 2015
 Cryptachaea altiventer (Keyserling, 1884)
@@ -662,9 +678,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Archer en 1946 comme un sous-genre de Theridion. Il est élevé au rang de genre par Archer en 1950[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Archer en 1946 comme un sous-genre de Theridion. Il est élevé au rang de genre par Archer en 1950.
 </t>
         </is>
       </c>
@@ -693,7 +711,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Archer, 1946 : « The Theridiidae or comb-footed spiders of Alabama. » Museum Paper, Alabama Museum of Natural History, vol. 22, p. 1-67.</t>
         </is>
